--- a/OverWatch/projectInfo/DataStructure.xlsx
+++ b/OverWatch/projectInfo/DataStructure.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rmartine\git\localMonitor\monitor\projectInfo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rmartine\git\Overwatch\OverWatch\projectInfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BDC99DB-27A3-47A2-9AB0-FBAFDC67974A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164E618B-B15D-4A4E-828C-5163895CB5AC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4320" yWindow="2250" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{3AB07BF0-B26F-4748-9352-504FCA8AB63D}"/>
+    <workbookView xWindow="33420" yWindow="2655" windowWidth="21600" windowHeight="12735" xr2:uid="{3AB07BF0-B26F-4748-9352-504FCA8AB63D}"/>
   </bookViews>
   <sheets>
     <sheet name="ErrorCode" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
   <si>
     <t>Jobs</t>
   </si>
@@ -164,6 +164,9 @@
   </si>
   <si>
     <t>Duration</t>
+  </si>
+  <si>
+    <t>Minor CPU Allocation</t>
   </si>
 </sst>
 </file>
@@ -595,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60466AF2-E8CD-444D-B7F9-8F1E74F550D1}">
-  <dimension ref="A21:C60"/>
+  <dimension ref="A21:C61"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -906,6 +909,15 @@
         <v>100</v>
       </c>
     </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="2"/>
+      <c r="B61" t="s">
+        <v>44</v>
+      </c>
+      <c r="C61">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -916,7 +928,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B1D0180-DE8A-4170-BED8-129EB71AF61A}">
   <dimension ref="B2:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
